--- a/stock.xlsx
+++ b/stock.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lidor-lenovo\PycharmProjects\AltiumStockSearcher\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Programming\Python\AltiumStockSearcher\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0797DD1-3E13-41C4-818D-93553B8CFF68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F9883BA-89FE-4FB7-9C2A-61969075B38C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4920" yWindow="1464" windowWidth="17280" windowHeight="8976" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CAP" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>Description</t>
   </si>
@@ -43,21 +43,12 @@
     <t>0.1 µF ±10% 50V Ceramic Capacitor X7R 0805 (2012 Metric)</t>
   </si>
   <si>
-    <t>1276-1028-1-ND</t>
-  </si>
-  <si>
-    <t>10000 pF ±10% 50V Ceramic Capacitor X7R 0402 (1005 Metric)</t>
-  </si>
-  <si>
     <t>Cell</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>A1</t>
-  </si>
-  <si>
     <t>478-1126-1-ND</t>
   </si>
   <si>
@@ -73,14 +64,68 @@
     <t>311-4.7KGRCT-ND</t>
   </si>
   <si>
-    <t>R8</t>
+    <t>Resistor 0805</t>
+  </si>
+  <si>
+    <t>Resistor 0603</t>
+  </si>
+  <si>
+    <t>RC0603JR-071KL</t>
+  </si>
+  <si>
+    <t>RES 1K OHM 5% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>CD8</t>
+  </si>
+  <si>
+    <t>RES 47K OHM 1% 1/10W 0603</t>
+  </si>
+  <si>
+    <t>RC0603FR-0747KL</t>
+  </si>
+  <si>
+    <t>EF9</t>
+  </si>
+  <si>
+    <t>CD7</t>
+  </si>
+  <si>
+    <t>0805 CAPACITORS</t>
+  </si>
+  <si>
+    <t>0603 CAPACITORS</t>
+  </si>
+  <si>
+    <t>CAP CER 0603 1NF 50V X7R 10%</t>
+  </si>
+  <si>
+    <t>C0603X102K5RAC3316</t>
+  </si>
+  <si>
+    <t>+++</t>
+  </si>
+  <si>
+    <t>IJ10</t>
+  </si>
+  <si>
+    <t>C0603C109C5GACAUTO</t>
+  </si>
+  <si>
+    <t>CAP CER 1PF 50V C0G/NP0 0603</t>
+  </si>
+  <si>
+    <t>++</t>
+  </si>
+  <si>
+    <t>IJ11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,8 +141,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,8 +163,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -134,11 +193,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -147,6 +215,21 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -429,76 +512,137 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="50.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="55.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="8.85546875" style="8"/>
+    <col min="4" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="7">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
-        <v>100</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="C5" s="7">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2">
-        <v>68</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="2">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
+      <c r="B11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A8:D8"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -506,60 +650,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46A627D0-3F22-4276-8321-A107612C3E9E}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="82.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.109375" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="D2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="C10" s="2">
+        <v>50</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="2">
+        <v>100</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A7:D7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>